--- a/Images/Style_Function_table_style_sheet.xlsx
+++ b/Images/Style_Function_table_style_sheet.xlsx
@@ -5,12 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\Save Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
+      <!-- B4P: Insert the path name -->
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD56ED4A-F63F-4FF1-BC9E-8A5729C8E93F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{1E05181F-7658-468F-939A-E5C3994FD589}"/>
+    <workbookView activeTab="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-0000-0000-0000-000000000000}"/>
     <!-- B4P: Insert active sheet number, 1st one  = 0 -->
   </bookViews>
   <sheets>
@@ -19,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{00000000-0000-0000-0000-000000000000}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -335,10 +336,10 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{00000000-0000-0000-0000-000000000000}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{00000000-0000-0000-0000-000000000000}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
@@ -641,8 +642,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6E9DB8-F9F0-48BC-8FB8-C5CBBDF79186}">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0000-0000-0000-000000000000}">
+  <dimension ref="A1:H15"/>
   <!-- B4P: Example: A1:Z9 -->
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1" showGridLines="1">

--- a/Images/Style_Function_table_style_sheet.xlsx
+++ b/Images/Style_Function_table_style_sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zur-b\OneDrive\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
       <!-- B4P: Insert the path name -->
     </mc:Choice>
   </mc:AlternateContent>

--- a/Images/Style_Function_table_style_sheet.xlsx
+++ b/Images/Style_Function_table_style_sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zur-b\OneDrive\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zur-b\OneDrive\Documents\Programme\B4P\b4p-docu-maker\"/>
       <!-- B4P: Insert the path name -->
     </mc:Choice>
   </mc:AlternateContent>
